--- a/Europe_Data_Files/Output/dependencies.xlsx
+++ b/Europe_Data_Files/Output/dependencies.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a684b2255d33441d/Data_science_projects/Ticket_To_Ride/Europe_Data_Files/Output/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cr7bo\OneDrive\Data_science_projects\Ticket_To_Ride\Europe_Data_Files\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="69" documentId="D17103F8D7A9A33258CC98CAFC1EEFD8F7247C6B" xr6:coauthVersionLast="25" xr6:coauthVersionMax="25" xr10:uidLastSave="{840EB5A2-87B8-47D5-9C59-1401986B70F9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7896"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="7896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="dependencies" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="52">
   <si>
     <t>Origin</t>
   </si>
@@ -172,12 +173,18 @@
   </si>
   <si>
     <t>Danzig</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1011,11 +1018,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1025,7 +1032,7 @@
     <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1035,8 +1042,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>28</v>
       </c>
@@ -1046,8 +1056,11 @@
       <c r="C2">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -1057,8 +1070,11 @@
       <c r="C3">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>14</v>
       </c>
@@ -1068,8 +1084,11 @@
       <c r="C4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1079,8 +1098,11 @@
       <c r="C5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1090,8 +1112,11 @@
       <c r="C6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -1101,8 +1126,11 @@
       <c r="C7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -1112,8 +1140,11 @@
       <c r="C8">
         <v>4</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1123,8 +1154,11 @@
       <c r="C9">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>27</v>
       </c>
@@ -1134,8 +1168,11 @@
       <c r="C10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1145,8 +1182,11 @@
       <c r="C11">
         <v>4</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>40</v>
       </c>
@@ -1156,8 +1196,11 @@
       <c r="C12">
         <v>4</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1167,8 +1210,11 @@
       <c r="C13">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1178,8 +1224,11 @@
       <c r="C14">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>20</v>
       </c>
@@ -1189,8 +1238,11 @@
       <c r="C15">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>4</v>
       </c>
@@ -1200,8 +1252,11 @@
       <c r="C16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1211,8 +1266,11 @@
       <c r="C17">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>28</v>
       </c>
@@ -1222,8 +1280,11 @@
       <c r="C18">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -1233,8 +1294,11 @@
       <c r="C19">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>30</v>
       </c>
@@ -1244,8 +1308,11 @@
       <c r="C20">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>33</v>
       </c>
@@ -1255,8 +1322,11 @@
       <c r="C21">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>24</v>
       </c>
@@ -1266,8 +1336,11 @@
       <c r="C22">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>35</v>
       </c>
@@ -1277,8 +1350,11 @@
       <c r="C23">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>8</v>
       </c>
@@ -1288,8 +1364,11 @@
       <c r="C24">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>41</v>
       </c>
@@ -1299,8 +1378,11 @@
       <c r="C25">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>39</v>
       </c>
@@ -1310,8 +1392,11 @@
       <c r="C26">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -1321,8 +1406,11 @@
       <c r="C27">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>34</v>
       </c>
@@ -1332,8 +1420,11 @@
       <c r="C28">
         <v>3</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>48</v>
       </c>
@@ -1343,8 +1434,11 @@
       <c r="C29">
         <v>3</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -1354,8 +1448,11 @@
       <c r="C30">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1365,8 +1462,11 @@
       <c r="C31">
         <v>2</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1376,8 +1476,11 @@
       <c r="C32">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -1387,8 +1490,11 @@
       <c r="C33">
         <v>2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1398,8 +1504,11 @@
       <c r="C34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -1409,8 +1518,11 @@
       <c r="C35">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1420,8 +1532,11 @@
       <c r="C36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
@@ -1431,8 +1546,11 @@
       <c r="C37">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>19</v>
       </c>
@@ -1442,8 +1560,11 @@
       <c r="C38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1453,8 +1574,11 @@
       <c r="C39">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>43</v>
       </c>
@@ -1464,8 +1588,11 @@
       <c r="C40">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>6</v>
       </c>
@@ -1475,8 +1602,11 @@
       <c r="C41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>34</v>
       </c>
@@ -1486,8 +1616,11 @@
       <c r="C42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>16</v>
       </c>
@@ -1497,8 +1630,11 @@
       <c r="C43">
         <v>2</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>4</v>
       </c>
@@ -1508,8 +1644,11 @@
       <c r="C44">
         <v>2</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>46</v>
       </c>
@@ -1519,8 +1658,11 @@
       <c r="C45">
         <v>2</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>21</v>
       </c>
@@ -1530,8 +1672,11 @@
       <c r="C46">
         <v>2</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>38</v>
       </c>
@@ -1541,8 +1686,11 @@
       <c r="C47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D47" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>14</v>
       </c>
@@ -1552,8 +1700,11 @@
       <c r="C48">
         <v>2</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>5</v>
       </c>
@@ -1563,8 +1714,11 @@
       <c r="C49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -1574,8 +1728,11 @@
       <c r="C50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>8</v>
       </c>
@@ -1585,8 +1742,11 @@
       <c r="C51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>16</v>
       </c>
@@ -1596,8 +1756,11 @@
       <c r="C52">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>21</v>
       </c>
@@ -1607,8 +1770,11 @@
       <c r="C53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>29</v>
       </c>
@@ -1618,8 +1784,11 @@
       <c r="C54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>30</v>
       </c>
@@ -1629,8 +1798,11 @@
       <c r="C55">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -1640,8 +1812,11 @@
       <c r="C56">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -1651,8 +1826,11 @@
       <c r="C57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>17</v>
       </c>
@@ -1662,8 +1840,11 @@
       <c r="C58">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>44</v>
       </c>
@@ -1673,8 +1854,11 @@
       <c r="C59">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D59" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>39</v>
       </c>
@@ -1684,8 +1868,11 @@
       <c r="C60">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>9</v>
       </c>
@@ -1695,8 +1882,11 @@
       <c r="C61">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>24</v>
       </c>
@@ -1706,8 +1896,11 @@
       <c r="C62">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -1717,8 +1910,11 @@
       <c r="C63">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>36</v>
       </c>
@@ -1728,8 +1924,11 @@
       <c r="C64">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>32</v>
       </c>
@@ -1739,8 +1938,11 @@
       <c r="C65">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>24</v>
       </c>
@@ -1750,8 +1952,11 @@
       <c r="C66">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>17</v>
       </c>
@@ -1761,8 +1966,11 @@
       <c r="C67">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>3</v>
       </c>
@@ -1772,8 +1980,11 @@
       <c r="C68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>47</v>
       </c>
@@ -1782,6 +1993,9 @@
       </c>
       <c r="C69">
         <v>1</v>
+      </c>
+      <c r="D69" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
